--- a/xlsx/失智症_intext.xlsx
+++ b/xlsx/失智症_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="997">
   <si>
     <t>失智症</t>
   </si>
@@ -41,19 +41,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%8C%B2%E6%B5%B7%E9%BB%98%E7%97%87</t>
   </si>
   <si>
-    <t>阿茲海默症</t>
+    <t>阿兹海默症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E5%AD%B8%E5%B0%88%E7%A7%91</t>
   </si>
   <si>
-    <t>醫學專科</t>
+    <t>医学专科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E5%85%A7%E7%A7%91</t>
   </si>
   <si>
-    <t>神經內科</t>
+    <t>神经内科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E7%A5%9E%E7%97%85%E5%AD%A6</t>
@@ -71,19 +71,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%98%E6%86%B6</t>
   </si>
   <si>
-    <t>記憶</t>
+    <t>记忆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%83%85%E7%B7%92</t>
   </si>
   <si>
-    <t>情緒</t>
+    <t>情绪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>語言</t>
+    <t>语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A8%E6%9C%BA</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%B0%8F%E9%AB%94%E5%9E%8B%E5%A4%B1%E6%99%BA%E7%97%87</t>
   </si>
   <si>
-    <t>路易氏體型失智症</t>
+    <t>路易氏体型失智症</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/frontotemporal_dementia</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%BA%E6%96%B7%E6%96%B9%E6%B3%95</t>
   </si>
   <si>
-    <t>診斷方法</t>
+    <t>诊断方法</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Cognitive_testing</t>
@@ -131,25 +131,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B0%A1%E6%98%93%E7%B2%BE%E7%A5%9E%E7%8B%80%E6%85%8B%E6%B8%AC%E9%A9%97</t>
   </si>
   <si>
-    <t>簡易精神狀態測驗</t>
+    <t>简易精神状态测验</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%91%91%E5%88%A5%E8%A8%BA%E6%96%B7</t>
   </si>
   <si>
-    <t>鑑別診斷</t>
+    <t>鑑别诊断</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%AB%E5%A6%84</t>
   </si>
   <si>
-    <t>譫妄</t>
+    <t>谵妄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E8%A1%80%E5%A3%93</t>
   </si>
   <si>
-    <t>高血壓</t>
+    <t>高血压</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A5%E8%83%96%E7%97%87</t>
@@ -161,13 +161,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%81%E7%85%99</t>
   </si>
   <si>
-    <t>禁煙</t>
+    <t>禁烟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%94%E8%83%BD%E8%A8%93%E7%B7%B4</t>
   </si>
   <si>
-    <t>體能訓練</t>
+    <t>体能训练</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%96%97%E6%B3%95</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E5%8F%B2</t>
   </si>
   <si>
-    <t>心理學史</t>
+    <t>心理学史</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Subfields_of_psychology</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%95%B0%E5%B8%B8%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>異常心理學</t>
+    <t>异常心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E4%B8%BA%E9%81%97%E4%BC%A0%E5%AD%A6</t>
@@ -233,19 +233,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物心理學</t>
+    <t>生物心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>認知心理學</t>
+    <t>认知心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BC%83%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>比較心理學</t>
+    <t>比较心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Cross-cultural_psychology</t>
@@ -269,43 +269,43 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E5%B1%95%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>發展心理學</t>
+    <t>发展心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E5%8C%96%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>演化心理學</t>
+    <t>演化心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E9%A9%97%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>實驗心理學</t>
+    <t>实验心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E5%AD%B8%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>數學心理學</t>
+    <t>数学心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>神經心理學</t>
+    <t>神经心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%A0%BC%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>人格心理學</t>
+    <t>人格心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E9%9D%A2%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>正面心理學</t>
+    <t>正面心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Quantitative_psychology</t>
@@ -317,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會心理學</t>
+    <t>社会心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%94%E7%94%A8%E5%BF%83%E7%90%86%E5%AD%A6</t>
@@ -329,43 +329,43 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E7%94%A8%E8%A1%8C%E7%82%BA%E5%88%86%E6%9E%90</t>
   </si>
   <si>
-    <t>應用行為分析</t>
+    <t>应用行为分析</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%A8%E5%BA%8A%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>臨床心理學</t>
+    <t>临床心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E5%8D%80%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>社區心理學</t>
+    <t>社区心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB%E8%A1%8C%E7%82%BA</t>
   </si>
   <si>
-    <t>消費行為</t>
+    <t>消费行为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%AE%E5%95%86%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>諮商心理學</t>
+    <t>谘商心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%B9%E5%88%A4%E7%A4%BE%E5%8D%80%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>批判社區心理學</t>
+    <t>批判社区心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>教育心理學</t>
+    <t>教育心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Environmental_psychology</t>
@@ -377,19 +377,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%9B%A0%E5%B7%A5%E7%A8%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>人因工程學</t>
+    <t>人因工程学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BA%AD%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>法庭心理學</t>
+    <t>法庭心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>健康心理學</t>
+    <t>健康心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%9C%AC%E4%B8%BB%E4%B9%89%E5%BF%83%E7%90%86%E5%AD%A6</t>
@@ -401,7 +401,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E8%88%87%E7%B5%84%E7%B9%94%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>工業與組織心理學</t>
+    <t>工业与组织心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ontological_hermeneutics</t>
@@ -443,13 +443,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治心理學</t>
+    <t>政治心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>宗教心理學</t>
+    <t>宗教心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/School_psychology</t>
@@ -461,19 +461,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E5%8B%95%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>運動心理學</t>
+    <t>运动心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E9%80%9A%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>交通心理學</t>
+    <t>交通心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E5%AD%B8%E7%A7%91%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>心理學學科列表</t>
+    <t>心理学学科列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_psychology_organizations</t>
@@ -485,7 +485,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>心理學家</t>
+    <t>心理学家</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_psychotherapies</t>
@@ -509,7 +509,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8%E5%AD%B8%E6%B4%BE%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>心理學學派列表</t>
+    <t>心理学学派列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Timeline_of_psychology</t>
@@ -551,25 +551,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5%E7%A5%9E%E7%B6%93%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>認知神經科學</t>
+    <t>认知神经科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E8%85%A6</t>
   </si>
   <si>
-    <t>人腦</t>
+    <t>人脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E8%A7%A3%E5%89%96%E5%AD%B8</t>
   </si>
   <si>
-    <t>神經解剖學</t>
+    <t>神经解剖学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E7%94%9F%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>神經生理學</t>
+    <t>神经生理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Neuropsychological_assessment</t>
@@ -617,7 +617,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E7%AD%96</t>
   </si>
   <si>
-    <t>決策</t>
+    <t>决策</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E6%8E%A7%E5%8A%9F%E8%83%BD</t>
@@ -629,13 +629,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>自然語言</t>
+    <t>自然语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E7%BF%92</t>
   </si>
   <si>
-    <t>學習</t>
+    <t>学习</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%90%E5%8A%A8%E5%8D%8F%E8%B0%83</t>
@@ -647,19 +647,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%A6%BA</t>
   </si>
   <si>
-    <t>知覺</t>
+    <t>知觉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E5%8A%83</t>
   </si>
   <si>
-    <t>企劃</t>
+    <t>企划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E6%B1%BA%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>解決問題</t>
+    <t>解决问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%9D%E6%83%B3</t>
@@ -689,7 +689,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%B0%BC%E6%96%AF%C2%B7%E8%93%8B%E5%90%89</t>
   </si>
   <si>
-    <t>費尼斯·蓋吉</t>
+    <t>费尼斯·盖吉</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Norman_Geschwind</t>
@@ -773,7 +773,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%88%A9%E4%BD%9B%C2%B7%E8%96%A9%E5%85%8B%E6%96%AF</t>
   </si>
   <si>
-    <t>奧利佛·薩克斯</t>
+    <t>奥利佛·萨克斯</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mark_Rosenzweig</t>
@@ -797,7 +797,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E8%8E%AB%E8%90%8A%E6%A3%AE</t>
   </si>
   <si>
-    <t>亨利·莫萊森</t>
+    <t>亨利·莫莱森</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/K.C._(patient)</t>
@@ -851,7 +851,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B0%A1%E7%9F%AD%E6%99%BA%E8%83%BD%E6%B8%AC%E9%A9%97</t>
   </si>
   <si>
-    <t>簡短智能測驗</t>
+    <t>简短智能测验</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Rey-Osterrieth_Complex_Figure</t>
@@ -863,13 +863,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%89%B9%E9%AD%AF%E6%99%AE%E6%95%88%E6%87%89</t>
   </si>
   <si>
-    <t>斯特魯普效應</t>
+    <t>斯特鲁普效应</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%8F%E6%B0%8F%E6%99%BA%E5%8A%9B%E6%B8%AC%E9%A9%97</t>
   </si>
   <si>
-    <t>魏氏智力測驗</t>
+    <t>魏氏智力测验</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Wechsler_Memory_Scale</t>
@@ -887,15 +887,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AA%9E</t>
   </si>
   <si>
-    <t>拉丁語</t>
+    <t>拉丁语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E8%AD%98</t>
   </si>
   <si>
-    <t>意識</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/normal_pressure_hydrocephalus</t>
   </si>
   <si>
@@ -941,7 +938,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E5%AD%B8%E5%BD%B1%E5%83%8F</t>
   </si>
   <si>
-    <t>醫學影像</t>
+    <t>医学影像</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%B8%E8%8F%B8</t>
@@ -971,31 +968,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5%E8%A1%8C%E7%82%BA%E7%99%82%E6%B3%95</t>
   </si>
   <si>
-    <t>認知行為療法</t>
+    <t>认知行为疗法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A3%E8%AD%B7%E5%B7%A5</t>
   </si>
   <si>
-    <t>監護工</t>
+    <t>监护工</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%B8%B8%E7%94%9F%E6%B4%BB%E6%B4%BB%E5%8B%95</t>
   </si>
   <si>
-    <t>日常生活活動</t>
+    <t>日常生活活动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%90%E5%BE%8C</t>
   </si>
   <si>
-    <t>預後</t>
+    <t>预后</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%9D%E8%A6%BA%E5%A4%B1%E8%AA%BF%E7%97%87</t>
   </si>
   <si>
-    <t>思覺失調症</t>
+    <t>思觉失调症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%97%E7%B2%BE%E7%A5%9E%E7%97%85%E8%8D%AF</t>
@@ -1007,7 +1004,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BA%AB%E5%BF%83%E9%9A%9C%E7%A4%99</t>
   </si>
   <si>
-    <t>身心障礙</t>
+    <t>身心障碍</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/chemical_restraint</t>
@@ -1019,7 +1016,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>人權</t>
+    <t>人权</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/social_stigma</t>
@@ -1031,19 +1028,16 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%85%B9%E6%B5%B7%E9%BB%98%E7%97%87</t>
   </si>
   <si>
-    <t>阿兹海默症</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%AD%E6%9C%9F%E8%A8%98%E6%86%B6</t>
   </si>
   <si>
-    <t>短期記憶</t>
+    <t>短期记忆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E6%9C%9F%E8%A8%98%E6%86%B6</t>
   </si>
   <si>
-    <t>長期記憶</t>
+    <t>长期记忆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A6%84%E6%83%B3</t>
@@ -1067,19 +1061,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%86%82%E9%AC%B1%E7%97%87</t>
   </si>
   <si>
-    <t>憂鬱症</t>
+    <t>忧郁症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E9%99%A2%E7%AE%A1%E7%90%86%E5%B1%80</t>
   </si>
   <si>
-    <t>醫院管理局</t>
+    <t>医院管理局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E7%94%9F%E7%BD%B2</t>
   </si>
   <si>
-    <t>衛生署</t>
+    <t>卫生署</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Frontotemporal_dementia</t>
@@ -1097,7 +1091,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E6%BB%8B%E7%97%85</t>
   </si>
   <si>
-    <t>愛滋病</t>
+    <t>爱滋病</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%B3%E5%87%BB%E6%89%8B</t>
@@ -1109,13 +1103,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%BA%E5%82%B3</t>
   </si>
   <si>
-    <t>遺傳</t>
+    <t>遗传</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E4%B8%81%E9%A0%93%E8%88%9E%E8%B9%88%E7%97%87</t>
   </si>
   <si>
-    <t>亨丁頓舞蹈症</t>
+    <t>亨丁顿舞蹈症</t>
   </si>
   <si>
     <t>https://nl.wikipedia.org/wiki/Katwijkse_ziekte</t>
@@ -1127,19 +1121,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E4%BB%96%E5%91%BDB</t>
   </si>
   <si>
-    <t>維他命B</t>
+    <t>维他命B</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E4%BB%96%E5%91%BDA</t>
   </si>
   <si>
-    <t>維他命A</t>
+    <t>维他命A</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%85%AB%E7%98%A4</t>
   </si>
   <si>
-    <t>腫瘤</t>
+    <t>肿瘤</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/MedlinePlus</t>
@@ -1205,43 +1199,43 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E9%96%89%E7%97%87%E5%85%89%E8%AD%9C</t>
   </si>
   <si>
-    <t>自閉症光譜</t>
+    <t>自闭症光谱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E9%96%89%E7%97%87</t>
   </si>
   <si>
-    <t>自閉症</t>
+    <t>自闭症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%96%AF%E4%BC%AF%E6%A0%BC%E7%97%87%E5%80%99%E7%BE%A4</t>
   </si>
   <si>
-    <t>亞斯伯格症候群</t>
+    <t>亚斯伯格症候群</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E8%80%85%E7%97%87%E5%80%99%E7%BE%A4</t>
   </si>
   <si>
-    <t>學者症候群</t>
+    <t>学者症候群</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%85%E5%88%86%E9%A1%9E%E7%9A%84%E5%BB%A3%E6%B3%9B%E6%80%A7%E7%99%BC%E5%B1%95%E9%9A%9C%E7%A4%99</t>
   </si>
   <si>
-    <t>待分類的廣泛性發展障礙</t>
+    <t>待分类的广泛性发展障碍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%9F%E8%83%BD%E8%87%AA%E9%96%89%E7%97%87</t>
   </si>
   <si>
-    <t>高功能自閉症</t>
+    <t>高功能自闭症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%85%A6%E9%9C%87%E7%9B%AA%E7%97%87%E5%80%99%E7%BE%A4</t>
   </si>
   <si>
-    <t>腦震盪症候群</t>
+    <t>脑震荡症候群</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Organic_brain_syndrome</t>
@@ -1265,7 +1259,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%A5%E7%89%A9%E9%81%8E%E9%87%8F</t>
   </si>
   <si>
-    <t>藥物過量</t>
+    <t>药物过量</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BA%AB%E4%BD%93%E4%BE%9D%E8%B5%96</t>
@@ -1277,7 +1271,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E8%B3%AA%E4%BE%9D%E8%B3%B4</t>
   </si>
   <si>
-    <t>物質依賴</t>
+    <t>物质依赖</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Rebound_effect</t>
@@ -1295,7 +1289,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%A5%E7%89%A9%E6%88%92%E6%96%B7</t>
   </si>
   <si>
-    <t>藥物戒斷</t>
+    <t>药物戒断</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E7%A5%9E%E5%88%86%E8%A3%82%E7%97%87</t>
@@ -1307,7 +1301,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E8%A3%82%E6%80%A7%E4%BA%BA%E6%A0%BC%E9%9A%9C%E7%A4%99</t>
   </si>
   <si>
-    <t>分裂性人格障礙</t>
+    <t>分裂性人格障碍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A6%84%E6%83%B3%E7%97%87</t>
@@ -1319,7 +1313,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%9D%E8%A6%BA%E5%A4%B1%E8%AA%BF</t>
   </si>
   <si>
-    <t>思覺失調</t>
+    <t>思觉失调</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E8%A3%82%E6%83%85%E6%84%9F%E6%80%A7%E9%9A%9C%E7%A2%8D</t>
@@ -1355,7 +1349,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%83%85%E6%84%9F%E9%9A%9C%E7%A4%99</t>
   </si>
   <si>
-    <t>情感障礙</t>
+    <t>情感障碍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%82%E8%BA%81</t>
@@ -1367,7 +1361,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BA%81%E9%AC%B1%E7%97%87</t>
   </si>
   <si>
-    <t>躁鬱症</t>
+    <t>躁郁症</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Bipolar_I_disorder</t>
@@ -1385,7 +1379,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AA%E7%92%B0%E6%80%A7%E6%83%85%E6%84%9F%E7%97%87</t>
   </si>
   <si>
-    <t>循環性情感症</t>
+    <t>循环性情感症</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Bipolar_disorder_not_otherwise_specified</t>
@@ -1439,7 +1433,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A3%93%E5%8A%9B_(%E9%86%AB%E5%AD%B8)</t>
   </si>
   <si>
-    <t>壓力 (醫學)</t>
+    <t>压力 (医学)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BA%AB%E5%BF%83%E6%80%A7%E7%96%BE%E7%97%85</t>
@@ -1457,13 +1451,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%81%90%E6%87%BC%E7%97%87</t>
   </si>
   <si>
-    <t>恐懼症</t>
+    <t>恐惧症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%A0%B4%E6%81%90%E6%87%BC%E7%97%87</t>
   </si>
   <si>
-    <t>廣場恐懼症</t>
+    <t>广场恐惧症</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Social_anxiety</t>
@@ -1475,7 +1469,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BA%A4%E6%81%90%E6%87%BC%E7%97%87</t>
   </si>
   <si>
-    <t>社交恐懼症</t>
+    <t>社交恐惧症</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Anthropophobia</t>
@@ -1511,7 +1505,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%81%90%E6%85%8C%E7%99%BC%E4%BD%9C</t>
   </si>
   <si>
-    <t>恐慌發作</t>
+    <t>恐慌发作</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BF%E6%B3%9B%E6%80%A7%E7%84%A6%E8%99%91%E7%97%87</t>
@@ -1535,7 +1529,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E5%82%B7%E5%BE%8C%E5%BF%83%E7%90%86%E5%A3%93%E5%8A%9B%E7%B7%8A%E5%BC%B5%E7%97%87%E5%80%99%E7%BE%A4</t>
   </si>
   <si>
-    <t>創傷後心理壓力緊張症候群</t>
+    <t>创伤后心理压力紧张症候群</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Adjustment_disorder</t>
@@ -1553,7 +1547,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BA%AB%E9%AB%94%E7%95%B8%E5%BD%A2%E6%81%90%E6%87%BC%E7%97%87</t>
   </si>
   <si>
-    <t>身體畸形恐懼症</t>
+    <t>身体畸形恐惧症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%96%91%E7%97%85%E7%97%87</t>
@@ -1601,7 +1595,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E8%A1%B0%E5%BC%B1</t>
   </si>
   <si>
-    <t>神經衰弱</t>
+    <t>神经衰弱</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mass_psychogenic_illness</t>
@@ -1613,13 +1607,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E9%9B%A2%E7%97%87</t>
   </si>
   <si>
-    <t>解離症</t>
+    <t>解离症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E9%9B%A2%E6%80%A7%E4%BA%BA%E6%A0%BC%E7%96%BE%E6%82%A3</t>
   </si>
   <si>
-    <t>解離性人格疾患</t>
+    <t>解离性人格疾患</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Psychogenic_amnesia</t>
@@ -1637,7 +1631,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%A0%BC%E8%A7%A3%E9%AB%94%E9%9A%9C%E7%A4%99</t>
   </si>
   <si>
-    <t>人格解體障礙</t>
+    <t>人格解体障碍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%9B%E9%A3%9F%E9%9A%9C%E7%A2%8D</t>
@@ -1655,7 +1649,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E6%80%A7%E6%9A%B4%E9%A3%9F%E7%97%87</t>
   </si>
   <si>
-    <t>神經性暴食症</t>
+    <t>神经性暴食症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%88%8D%E7%BB%BC%E5%90%88%E7%97%87</t>
@@ -1703,7 +1697,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9C%E9%A9%9A</t>
   </si>
   <si>
-    <t>夜驚</t>
+    <t>夜惊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%B6%E6%A2%A6</t>
@@ -1727,7 +1721,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E6%85%BE%E4%BA%A2%E9%80%B2</t>
   </si>
   <si>
-    <t>性慾亢進</t>
+    <t>性慾亢进</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%80%A7%E6%80%A7%E5%8A%9F%E8%83%BD%E9%9A%9C%E7%A2%8D</t>
@@ -1757,7 +1751,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A9%E7%99%BC%E6%80%A7%E5%B0%84%E7%B2%BE</t>
   </si>
   <si>
-    <t>早發性射精</t>
+    <t>早发性射精</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sexual_anhedonia</t>
@@ -1769,7 +1763,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%B0%E9%81%93%E7%97%99%E6%94%A3</t>
   </si>
   <si>
-    <t>陰道痙攣</t>
+    <t>阴道痉挛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E4%BA%A4%E7%96%BC%E7%97%9B</t>
@@ -1799,7 +1793,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5%E4%B8%8D%E5%AE%89%E7%97%87</t>
   </si>
   <si>
-    <t>性別不安症</t>
+    <t>性别不安症</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sexual_maturation_disorder</t>
@@ -1823,13 +1817,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%81%8F%E9%9B%A2</t>
   </si>
   <si>
-    <t>性偏離</t>
+    <t>性偏离</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AA%BA%E8%A6%96%E7%97%87</t>
   </si>
   <si>
-    <t>窺視症</t>
+    <t>窥视症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%8B%E7%89%A9%E7%99%96</t>
@@ -1841,7 +1835,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%A0%BC%E9%9A%9C%E7%A4%99</t>
   </si>
   <si>
-    <t>人格障礙</t>
+    <t>人格障碍</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Impulse_control_disorder</t>
@@ -1853,7 +1847,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8A%E7%9B%9C%E7%99%96</t>
   </si>
   <si>
-    <t>竊盜癖</t>
+    <t>窃盗癖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%94%E6%AF%9B%E7%99%96</t>
@@ -1883,7 +1877,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%82%BA%E7%96%BE%E6%82%A3</t>
   </si>
   <si>
-    <t>人為疾患</t>
+    <t>人为疾患</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E4%B9%94%E6%A3%AE%E7%BB%BC%E5%90%88%E5%BE%81</t>
@@ -1901,7 +1895,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E8%83%BD%E9%9A%9C%E7%A4%99</t>
   </si>
   <si>
-    <t>智能障礙</t>
+    <t>智能障碍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/X%E6%9F%93%E8%89%B2%E4%BD%93%E8%BF%9E%E9%94%81%E7%B2%BE%E7%A5%9E%E5%8F%91%E8%82%B2%E8%BF%9F%E6%BB%9E</t>
@@ -1931,13 +1925,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E6%B3%9B%E6%80%A7%E7%99%BC%E5%B1%95%E9%9A%9C%E7%A4%99</t>
   </si>
   <si>
-    <t>廣泛性發展障礙</t>
+    <t>广泛性发展障碍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A8%E6%84%8F%E5%8A%9B%E4%B8%8D%E8%B6%B3%E9%81%8E%E5%8B%95%E7%97%87</t>
   </si>
   <si>
-    <t>注意力不足過動症</t>
+    <t>注意力不足过动症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%81%E8%A1%8C%E9%9A%9C%E7%A2%8D</t>
@@ -1991,7 +1985,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E9%9F%B3%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>發音問題</t>
+    <t>发音问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A3%E5%90%83</t>
@@ -2027,7 +2021,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%81%87%E6%80%A7%E6%87%B7%E5%AD%95</t>
   </si>
   <si>
-    <t>假性懷孕</t>
+    <t>假性怀孕</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Intermittent_explosive_disorder</t>
@@ -2057,7 +2051,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%AD%AF%E7%88%BE-%E5%B8%83%E8%A5%BF%E7%97%87%E5%80%99%E7%BE%A4</t>
   </si>
   <si>
-    <t>克魯爾-布西症候群</t>
+    <t>克鲁尔-布西症候群</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%BB%8F%E7%B3%BB%E7%BB%9F</t>
@@ -2087,7 +2081,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%85%A6%E9%83%A8</t>
   </si>
   <si>
-    <t>腦部</t>
+    <t>脑部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%84%91%E7%82%8E</t>
@@ -2141,7 +2135,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%84%8A%E9%AB%93%E7%81%B0%E8%B3%AA%E7%82%8E</t>
   </si>
   <si>
-    <t>脊髓灰質炎</t>
+    <t>脊髓灰质炎</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Demyelinating_disease</t>
@@ -2183,7 +2177,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%85%A6%E8%86%9C%E8%85%A6%E7%82%8E</t>
   </si>
   <si>
-    <t>腦膜腦炎</t>
+    <t>脑膜脑炎</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/encephalopathy</t>
@@ -2303,7 +2297,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9C%BC%E7%9E%BC%E7%97%99%E6%94%A3</t>
   </si>
   <si>
-    <t>眼瞼痙攣</t>
+    <t>眼睑痉挛</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Athetosis</t>
@@ -2363,7 +2357,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E5%AF%A7%E8%85%BF%E7%B6%9C%E5%90%88%E5%BE%B5</t>
   </si>
   <si>
-    <t>不寧腿綜合徵</t>
+    <t>不宁腿综合征</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%83%B5%E4%BA%BA%E7%BB%BC%E5%90%88%E5%BE%81</t>
@@ -2441,7 +2435,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%85%8E%E4%B8%8A%E8%85%BA%E8%85%A6%E7%99%BD%E8%B3%AA%E5%A4%B1%E9%A4%8A%E7%97%87</t>
   </si>
   <si>
-    <t>腎上腺腦白質失養症</t>
+    <t>肾上腺脑白质失养症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%8E%86%E5%B1%B1%E5%A4%A7%E7%97%85</t>
@@ -2465,7 +2459,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%95%B0%E6%9F%93%E6%80%A7%E8%85%A6%E7%99%BD%E8%B3%AA%E9%80%80%E5%8C%96%E7%97%87</t>
   </si>
   <si>
-    <t>異染性腦白質退化症</t>
+    <t>异染性脑白质退化症</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Pelizaeus-Merzbacher_disease</t>
@@ -2513,13 +2507,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%B2%E7%99%87%E7%99%BC%E4%BD%9C</t>
   </si>
   <si>
-    <t>癲癇發作</t>
+    <t>癫痫发作</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%B2%E7%99%87</t>
   </si>
   <si>
-    <t>癲癇</t>
+    <t>癫痫</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Focal_seizures</t>
@@ -2537,13 +2531,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%B2%E7%99%87%E9%87%8D%E7%A9%8D%E7%8B%80%E6%85%8B</t>
   </si>
   <si>
-    <t>癲癇重積狀態</t>
+    <t>癫痫重积状态</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%AD%E7%97%9B</t>
   </si>
   <si>
-    <t>頭痛</t>
+    <t>头痛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%8F%E5%A4%B4%E7%97%9B</t>
@@ -2603,7 +2597,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%A2%A8</t>
   </si>
   <si>
-    <t>中風</t>
+    <t>中风</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Middle_cerebral_artery_syndrome</t>
@@ -2675,7 +2669,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E4%BD%9C%E6%80%A7%E5%97%9C%E7%9D%A1%E7%97%85</t>
   </si>
   <si>
-    <t>發作性嗜睡病</t>
+    <t>发作性嗜睡病</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Cataplexy</t>
@@ -2687,7 +2681,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E8%90%8A%E6%81%A9-%E8%90%8A%E6%96%87%E7%97%87%E5%80%99%E7%BE%A4</t>
   </si>
   <si>
-    <t>克萊恩-萊文症候群</t>
+    <t>克莱恩-莱文症候群</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%90%86%E8%8A%82%E5%BE%8B%E7%9D%A1%E7%9C%A0%E9%9A%9C%E7%A2%8D</t>
@@ -2879,7 +2873,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%BA%E5%82%B3%E6%80%A7%E7%97%99%E6%94%A3%E6%80%A7%E4%B8%8B%E5%8D%8A%E8%BA%AB%E9%BA%BB%E7%97%BA</t>
   </si>
   <si>
-    <t>遺傳性痙攣性下半身麻痺</t>
+    <t>遗传性痉挛性下半身麻痺</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Lower_motor_neuron</t>
@@ -2897,13 +2891,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E5%8B%95%E7%A5%9E%E7%B6%93%E5%85%83%E7%96%BE%E7%97%85</t>
   </si>
   <si>
-    <t>運動神經元疾病</t>
+    <t>运动神经元疾病</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%84%8A%E9%AB%93%E6%80%A7%E8%82%8C%E8%82%89%E8%90%8E%E7%B8%AE%E7%97%87</t>
   </si>
   <si>
-    <t>脊髓性肌肉萎縮症</t>
+    <t>脊髓性肌肉萎缩症</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/X-linked_spinal_muscular_atrophy_type_1</t>
@@ -2981,13 +2975,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%A8%9E%E7%A5%9E%E7%B6%93%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>中樞神經系統</t>
+    <t>中枢神经系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -3005,7 +2999,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -7587,7 +7581,7 @@
         <v>291</v>
       </c>
       <c r="F146" t="s">
-        <v>292</v>
+        <v>198</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -7642,10 +7636,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>292</v>
+      </c>
+      <c r="F148" t="s">
         <v>293</v>
-      </c>
-      <c r="F148" t="s">
-        <v>294</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7671,10 +7665,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>294</v>
+      </c>
+      <c r="F149" t="s">
         <v>295</v>
-      </c>
-      <c r="F149" t="s">
-        <v>296</v>
       </c>
       <c r="G149" t="n">
         <v>5</v>
@@ -7700,10 +7694,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>296</v>
+      </c>
+      <c r="F150" t="s">
         <v>297</v>
-      </c>
-      <c r="F150" t="s">
-        <v>298</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -7729,10 +7723,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>298</v>
+      </c>
+      <c r="F151" t="s">
         <v>299</v>
-      </c>
-      <c r="F151" t="s">
-        <v>300</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7758,10 +7752,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>300</v>
+      </c>
+      <c r="F152" t="s">
         <v>301</v>
-      </c>
-      <c r="F152" t="s">
-        <v>302</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -7787,10 +7781,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>302</v>
+      </c>
+      <c r="F153" t="s">
         <v>303</v>
-      </c>
-      <c r="F153" t="s">
-        <v>304</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7816,10 +7810,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>304</v>
+      </c>
+      <c r="F154" t="s">
         <v>305</v>
-      </c>
-      <c r="F154" t="s">
-        <v>306</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7845,10 +7839,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>306</v>
+      </c>
+      <c r="F155" t="s">
         <v>307</v>
-      </c>
-      <c r="F155" t="s">
-        <v>308</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7874,10 +7868,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>308</v>
+      </c>
+      <c r="F156" t="s">
         <v>309</v>
-      </c>
-      <c r="F156" t="s">
-        <v>310</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7903,10 +7897,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>310</v>
+      </c>
+      <c r="F157" t="s">
         <v>311</v>
-      </c>
-      <c r="F157" t="s">
-        <v>312</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7932,10 +7926,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>312</v>
+      </c>
+      <c r="F158" t="s">
         <v>313</v>
-      </c>
-      <c r="F158" t="s">
-        <v>314</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7961,10 +7955,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>314</v>
+      </c>
+      <c r="F159" t="s">
         <v>315</v>
-      </c>
-      <c r="F159" t="s">
-        <v>316</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -7990,10 +7984,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>316</v>
+      </c>
+      <c r="F160" t="s">
         <v>317</v>
-      </c>
-      <c r="F160" t="s">
-        <v>318</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -8019,10 +8013,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>318</v>
+      </c>
+      <c r="F161" t="s">
         <v>319</v>
-      </c>
-      <c r="F161" t="s">
-        <v>320</v>
       </c>
       <c r="G161" t="n">
         <v>2</v>
@@ -8048,10 +8042,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>320</v>
+      </c>
+      <c r="F162" t="s">
         <v>321</v>
-      </c>
-      <c r="F162" t="s">
-        <v>322</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -8077,10 +8071,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>322</v>
+      </c>
+      <c r="F163" t="s">
         <v>323</v>
-      </c>
-      <c r="F163" t="s">
-        <v>324</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -8106,10 +8100,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>324</v>
+      </c>
+      <c r="F164" t="s">
         <v>325</v>
-      </c>
-      <c r="F164" t="s">
-        <v>326</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -8135,10 +8129,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>326</v>
+      </c>
+      <c r="F165" t="s">
         <v>327</v>
-      </c>
-      <c r="F165" t="s">
-        <v>328</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -8164,10 +8158,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>328</v>
+      </c>
+      <c r="F166" t="s">
         <v>329</v>
-      </c>
-      <c r="F166" t="s">
-        <v>330</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -8193,10 +8187,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>330</v>
+      </c>
+      <c r="F167" t="s">
         <v>331</v>
-      </c>
-      <c r="F167" t="s">
-        <v>332</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -8222,10 +8216,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>332</v>
+      </c>
+      <c r="F168" t="s">
         <v>333</v>
-      </c>
-      <c r="F168" t="s">
-        <v>334</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -8251,10 +8245,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>334</v>
+      </c>
+      <c r="F169" t="s">
         <v>335</v>
-      </c>
-      <c r="F169" t="s">
-        <v>336</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -8280,10 +8274,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F170" t="s">
-        <v>338</v>
+        <v>8</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -8309,10 +8303,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F171" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G171" t="n">
         <v>2</v>
@@ -8338,10 +8332,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F172" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -8367,10 +8361,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F173" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G173" t="n">
         <v>4</v>
@@ -8396,10 +8390,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F174" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G174" t="n">
         <v>5</v>
@@ -8425,10 +8419,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F175" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G175" t="n">
         <v>4</v>
@@ -8454,10 +8448,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F176" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -8483,10 +8477,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F177" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -8512,10 +8506,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F178" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -8541,10 +8535,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F179" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G179" t="n">
         <v>3</v>
@@ -8570,10 +8564,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F180" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G180" t="n">
         <v>3</v>
@@ -8599,10 +8593,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F181" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8628,10 +8622,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F182" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G182" t="n">
         <v>2</v>
@@ -8657,10 +8651,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F183" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8686,10 +8680,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F184" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G184" t="n">
         <v>2</v>
@@ -8715,10 +8709,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F185" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G185" t="n">
         <v>2</v>
@@ -8744,10 +8738,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F186" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G186" t="n">
         <v>2</v>
@@ -8773,10 +8767,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F187" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8802,10 +8796,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F188" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8831,10 +8825,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F189" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G189" t="n">
         <v>2</v>
@@ -8860,10 +8854,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F190" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8889,10 +8883,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F191" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8918,10 +8912,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F192" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G192" t="n">
         <v>15</v>
@@ -8947,10 +8941,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F193" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G193" t="n">
         <v>3</v>
@@ -8976,10 +8970,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F194" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G194" t="n">
         <v>47</v>
@@ -9005,10 +8999,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F195" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -9034,10 +9028,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F196" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -9063,10 +9057,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F197" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G197" t="n">
         <v>2</v>
@@ -9092,10 +9086,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>298</v>
+      </c>
+      <c r="F198" t="s">
         <v>299</v>
-      </c>
-      <c r="F198" t="s">
-        <v>300</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -9121,10 +9115,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F199" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -9150,10 +9144,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F200" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -9179,10 +9173,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F201" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -9208,10 +9202,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F202" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G202" t="n">
         <v>2</v>
@@ -9237,10 +9231,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F203" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G203" t="n">
         <v>4</v>
@@ -9266,10 +9260,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F204" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -9295,10 +9289,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F205" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -9324,10 +9318,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F206" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -9353,10 +9347,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F207" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -9382,10 +9376,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F208" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -9411,10 +9405,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F209" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -9440,10 +9434,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F210" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -9469,10 +9463,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F211" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -9498,10 +9492,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F212" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -9527,10 +9521,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F213" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -9556,10 +9550,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F214" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9585,10 +9579,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F215" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G215" t="n">
         <v>2</v>
@@ -9614,10 +9608,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F216" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G216" t="n">
         <v>2</v>
@@ -9643,10 +9637,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F217" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9672,10 +9666,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F218" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G218" t="n">
         <v>2</v>
@@ -9701,10 +9695,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F219" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9730,10 +9724,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F220" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G220" t="n">
         <v>2</v>
@@ -9759,10 +9753,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F221" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G221" t="n">
         <v>2</v>
@@ -9788,10 +9782,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F222" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G222" t="n">
         <v>2</v>
@@ -9817,10 +9811,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F223" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9846,10 +9840,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F224" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9875,10 +9869,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F225" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G225" t="n">
         <v>2</v>
@@ -9904,10 +9898,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F226" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9933,10 +9927,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F227" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9962,10 +9956,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F228" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9991,10 +9985,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F229" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -10020,10 +10014,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F230" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -10049,10 +10043,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F231" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -10078,10 +10072,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F232" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -10107,10 +10101,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F233" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -10136,10 +10130,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F234" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -10165,10 +10159,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F235" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -10194,10 +10188,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F236" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -10223,10 +10217,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F237" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -10252,10 +10246,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F238" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -10281,10 +10275,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F239" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -10310,10 +10304,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F240" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G240" t="n">
         <v>3</v>
@@ -10339,10 +10333,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F241" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G241" t="n">
         <v>3</v>
@@ -10368,10 +10362,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F242" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G242" t="n">
         <v>2</v>
@@ -10397,10 +10391,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F243" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G243" t="n">
         <v>2</v>
@@ -10426,10 +10420,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F244" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G244" t="n">
         <v>5</v>
@@ -10455,10 +10449,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F245" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10484,10 +10478,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F246" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -10513,10 +10507,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F247" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -10542,10 +10536,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F248" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -10571,10 +10565,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F249" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10600,10 +10594,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F250" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10629,10 +10623,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F251" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10658,10 +10652,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F252" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10687,10 +10681,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F253" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10716,10 +10710,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F254" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10745,10 +10739,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F255" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10774,10 +10768,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F256" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10803,10 +10797,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F257" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10832,10 +10826,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F258" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G258" t="n">
         <v>3</v>
@@ -10861,10 +10855,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F259" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G259" t="n">
         <v>2</v>
@@ -10890,10 +10884,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F260" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10919,10 +10913,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F261" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10948,10 +10942,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F262" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G262" t="n">
         <v>2</v>
@@ -10977,10 +10971,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F263" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G263" t="n">
         <v>2</v>
@@ -11006,10 +11000,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F264" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -11035,10 +11029,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F265" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -11064,10 +11058,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F266" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -11093,10 +11087,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F267" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -11122,10 +11116,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F268" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -11151,10 +11145,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F269" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G269" t="n">
         <v>2</v>
@@ -11180,10 +11174,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F270" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -11209,10 +11203,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F271" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -11238,10 +11232,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F272" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G272" t="n">
         <v>2</v>
@@ -11267,10 +11261,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F273" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G273" t="n">
         <v>2</v>
@@ -11296,10 +11290,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F274" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -11325,10 +11319,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F275" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -11354,10 +11348,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F276" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -11383,10 +11377,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F277" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -11412,10 +11406,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F278" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -11441,10 +11435,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F279" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -11470,10 +11464,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F280" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G280" t="n">
         <v>3</v>
@@ -11499,10 +11493,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F281" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G281" t="n">
         <v>2</v>
@@ -11528,10 +11522,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F282" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G282" t="n">
         <v>2</v>
@@ -11557,10 +11551,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F283" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G283" t="n">
         <v>2</v>
@@ -11586,10 +11580,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F284" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11615,10 +11609,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F285" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11644,10 +11638,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F286" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11673,10 +11667,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F287" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G287" t="n">
         <v>2</v>
@@ -11702,10 +11696,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F288" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G288" t="n">
         <v>2</v>
@@ -11731,10 +11725,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F289" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G289" t="n">
         <v>2</v>
@@ -11760,10 +11754,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F290" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11789,10 +11783,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F291" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11818,10 +11812,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F292" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11847,10 +11841,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F293" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11876,10 +11870,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F294" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11905,10 +11899,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F295" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G295" t="n">
         <v>2</v>
@@ -11934,10 +11928,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F296" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G296" t="n">
         <v>2</v>
@@ -11963,10 +11957,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F297" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11992,10 +11986,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F298" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G298" t="n">
         <v>2</v>
@@ -12021,10 +12015,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F299" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G299" t="n">
         <v>3</v>
@@ -12050,10 +12044,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F300" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -12079,10 +12073,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F301" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -12108,10 +12102,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F302" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -12137,10 +12131,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F303" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -12166,10 +12160,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F304" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -12195,10 +12189,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F305" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -12224,10 +12218,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F306" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G306" t="n">
         <v>2</v>
@@ -12253,10 +12247,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F307" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G307" t="n">
         <v>2</v>
@@ -12282,10 +12276,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F308" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G308" t="n">
         <v>2</v>
@@ -12311,10 +12305,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F309" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -12340,10 +12334,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F310" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -12369,10 +12363,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F311" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -12398,10 +12392,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F312" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G312" t="n">
         <v>2</v>
@@ -12427,10 +12421,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F313" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -12456,10 +12450,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F314" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12485,10 +12479,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F315" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -12514,10 +12508,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F316" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12543,10 +12537,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F317" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12572,10 +12566,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F318" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G318" t="n">
         <v>2</v>
@@ -12601,10 +12595,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F319" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12630,10 +12624,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F320" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12659,10 +12653,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F321" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12688,10 +12682,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F322" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12717,10 +12711,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F323" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12746,10 +12740,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F324" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G324" t="n">
         <v>2</v>
@@ -12775,10 +12769,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F325" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12804,10 +12798,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F326" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12833,10 +12827,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F327" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G327" t="n">
         <v>2</v>
@@ -12862,10 +12856,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F328" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12891,10 +12885,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F329" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12920,10 +12914,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F330" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12949,10 +12943,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F331" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12978,10 +12972,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F332" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -13007,10 +13001,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F333" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -13036,10 +13030,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F334" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -13065,10 +13059,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F335" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -13094,10 +13088,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F336" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -13123,10 +13117,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F337" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -13152,10 +13146,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F338" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -13181,10 +13175,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F339" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -13210,10 +13204,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F340" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -13239,10 +13233,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F341" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -13268,10 +13262,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F342" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -13297,10 +13291,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F343" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -13326,10 +13320,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F344" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G344" t="n">
         <v>2</v>
@@ -13355,10 +13349,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F345" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G345" t="n">
         <v>2</v>
@@ -13384,10 +13378,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F346" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="G346" t="n">
         <v>2</v>
@@ -13413,10 +13407,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F347" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G347" t="n">
         <v>2</v>
@@ -13442,10 +13436,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F348" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13471,10 +13465,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F349" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="G349" t="n">
         <v>5</v>
@@ -13500,10 +13494,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F350" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13529,10 +13523,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F351" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13558,10 +13552,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F352" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13587,10 +13581,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F353" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="G353" t="n">
         <v>2</v>
@@ -13616,10 +13610,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F354" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G354" t="n">
         <v>5</v>
@@ -13645,10 +13639,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F355" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="G355" t="n">
         <v>2</v>
@@ -13674,10 +13668,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="F356" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13703,10 +13697,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F357" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13732,10 +13726,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="F358" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13761,10 +13755,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="F359" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13790,10 +13784,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="F360" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="G360" t="n">
         <v>18</v>
@@ -13819,10 +13813,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="F361" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13848,10 +13842,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="F362" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13877,10 +13871,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F363" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G363" t="n">
         <v>3</v>
@@ -13906,10 +13900,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F364" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13935,10 +13929,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F365" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13964,10 +13958,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F366" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13993,10 +13987,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F367" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -14022,10 +14016,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F368" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -14051,10 +14045,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F369" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -14080,10 +14074,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F370" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="G370" t="n">
         <v>4</v>
@@ -14109,10 +14103,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F371" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="G371" t="n">
         <v>3</v>
@@ -14138,10 +14132,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="F372" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -14167,10 +14161,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F373" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="G373" t="n">
         <v>2</v>
@@ -14196,10 +14190,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F374" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -14225,10 +14219,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F375" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="G375" t="n">
         <v>7</v>
@@ -14254,10 +14248,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F376" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -14283,10 +14277,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F377" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -14312,10 +14306,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="F378" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -14341,10 +14335,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F379" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="G379" t="n">
         <v>2</v>
@@ -14370,10 +14364,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="F380" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -14399,10 +14393,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F381" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14428,10 +14422,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="F382" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14457,10 +14451,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F383" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -14486,10 +14480,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F384" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14515,10 +14509,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="F385" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14544,10 +14538,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F386" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14573,10 +14567,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F387" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14602,10 +14596,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F388" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14631,10 +14625,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F389" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14660,10 +14654,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="F390" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14689,10 +14683,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F391" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14718,10 +14712,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F392" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="G392" t="n">
         <v>2</v>
@@ -14747,10 +14741,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F393" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14776,10 +14770,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="F394" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14805,10 +14799,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F395" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="G395" t="n">
         <v>2</v>
@@ -14834,10 +14828,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="F396" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14863,10 +14857,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="F397" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="G397" t="n">
         <v>3</v>
@@ -14892,10 +14886,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="F398" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14921,10 +14915,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="F399" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14950,10 +14944,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="F400" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14979,10 +14973,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="F401" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -15008,10 +15002,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="F402" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="G402" t="n">
         <v>14</v>
@@ -15037,10 +15031,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F403" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -15066,10 +15060,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F404" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -15095,10 +15089,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="F405" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -15124,10 +15118,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="F406" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -15153,10 +15147,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="F407" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -15182,10 +15176,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="F408" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -15211,10 +15205,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="F409" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -15240,10 +15234,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="F410" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -15269,10 +15263,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="F411" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -15298,10 +15292,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="F412" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -15327,10 +15321,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="F413" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -15356,10 +15350,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="F414" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -15385,10 +15379,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="F415" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15414,10 +15408,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F416" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -15443,10 +15437,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F417" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15472,10 +15466,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="F418" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15501,10 +15495,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="F419" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15530,10 +15524,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="F420" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15559,10 +15553,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="F421" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15588,10 +15582,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F422" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15617,10 +15611,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F423" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15646,10 +15640,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="F424" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15675,10 +15669,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="F425" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G425" t="n">
         <v>2</v>
@@ -15704,10 +15698,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F426" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15733,10 +15727,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F427" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15762,10 +15756,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F428" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15791,10 +15785,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="F429" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15820,10 +15814,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="F430" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="G430" t="n">
         <v>6</v>
@@ -15849,10 +15843,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F431" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="G431" t="n">
         <v>3</v>
@@ -15878,10 +15872,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F432" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -15907,10 +15901,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="F433" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -15936,10 +15930,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F434" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -15965,10 +15959,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F435" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="G435" t="n">
         <v>2</v>
@@ -15994,10 +15988,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="F436" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -16023,10 +16017,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="F437" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -16052,10 +16046,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="F438" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -16081,10 +16075,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="F439" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="G439" t="n">
         <v>2</v>
@@ -16110,10 +16104,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="F440" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -16139,10 +16133,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F441" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -16168,10 +16162,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="F442" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -16197,10 +16191,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F443" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -16226,10 +16220,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="F444" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16255,10 +16249,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F445" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16284,10 +16278,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F446" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -16313,10 +16307,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="F447" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16342,10 +16336,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="F448" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16371,10 +16365,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F449" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16400,10 +16394,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="F450" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="G450" t="n">
         <v>2</v>
@@ -16429,10 +16423,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F451" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16458,10 +16452,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="F452" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16487,10 +16481,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="F453" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -16516,10 +16510,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="F454" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -16545,10 +16539,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="F455" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16574,10 +16568,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="F456" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -16603,10 +16597,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="F457" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -16632,10 +16626,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="F458" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -16661,10 +16655,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="F459" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -16690,10 +16684,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="F460" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -16719,10 +16713,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="F461" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -16748,10 +16742,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="F462" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -16777,10 +16771,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="F463" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="G463" t="n">
         <v>2</v>
@@ -16806,10 +16800,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="F464" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -16835,10 +16829,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="F465" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -16864,10 +16858,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="F466" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -16893,10 +16887,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="F467" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -16922,10 +16916,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="F468" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -16951,10 +16945,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="F469" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -16980,10 +16974,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="F470" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -17009,10 +17003,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F471" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -17038,10 +17032,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F472" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -17067,10 +17061,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F473" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="G473" t="n">
         <v>3</v>
@@ -17096,10 +17090,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="F474" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -17125,10 +17119,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F475" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -17154,10 +17148,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="F476" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17183,10 +17177,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="F477" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17212,10 +17206,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="F478" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17241,10 +17235,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="F479" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -17270,10 +17264,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="F480" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -17299,10 +17293,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="F481" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -17328,10 +17322,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="F482" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -17357,10 +17351,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="F483" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -17386,10 +17380,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="F484" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -17415,10 +17409,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="F485" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -17444,10 +17438,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="F486" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -17473,10 +17467,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F487" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -17502,10 +17496,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="F488" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -17531,10 +17525,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="F489" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -17560,10 +17554,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="F490" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -17589,10 +17583,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="F491" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -17618,10 +17612,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="F492" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -17647,10 +17641,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="F493" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -17676,10 +17670,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="F494" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -17705,10 +17699,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="F495" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -17734,10 +17728,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="F496" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -17763,10 +17757,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F497" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -17792,10 +17786,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="F498" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -17821,10 +17815,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="F499" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -17850,10 +17844,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="F500" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -17879,10 +17873,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="F501" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -17908,10 +17902,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="F502" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -17937,10 +17931,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="F503" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -17966,10 +17960,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="F504" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="G504" t="n">
         <v>1</v>
@@ -17995,10 +17989,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="F505" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="G505" t="n">
         <v>3</v>
@@ -18024,10 +18018,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="F506" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -18053,10 +18047,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="F507" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -18082,10 +18076,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="F508" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -18111,10 +18105,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="F509" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
